--- a/src/excel/CardByID.xlsx
+++ b/src/excel/CardByID.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">idColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">69</t>
+    <t xml:space="preserve">71</t>
   </si>
   <si>
     <t xml:space="preserve">DA a1233SUA aaaaa</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">car1d1 column a4</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue Jun 21 2022 14:45:13 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:36:44 GMT+0700 (Indochina Time)</t>
+    <t xml:space="preserve">Tue Jun 21 2022 16:03:36 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 09:44:11 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>

--- a/src/excel/CardByID.xlsx
+++ b/src/excel/CardByID.xlsx
@@ -56,25 +56,31 @@
     <t xml:space="preserve">idColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA a1233SUA aaaaa</t>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter card 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri Nov 10 2023 00:00:00 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car1d1 column aa4</t>
   </si>
   <si>
     <t xml:space="preserve">null</t>
   </si>
   <si>
-    <t xml:space="preserve">car1d1 column a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:03:36 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wed Jun 22 2022 09:44:11 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu Jun 23 2022 10:30:48 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
   </si>
 </sst>
 </file>
@@ -445,22 +451,22 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
